--- a/group_5_project/excel_files/local_search_w_different_ngh.xlsx
+++ b/group_5_project/excel_files/local_search_w_different_ngh.xlsx
@@ -414,10 +414,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>11.89500397816821</v>
+        <v>9.713925848680759</v>
       </c>
       <c r="E2">
-        <v>44.342061968</v>
+        <v>32.934885032</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,10 +431,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>9.757092540917148</v>
+        <v>9.713925848680759</v>
       </c>
       <c r="E3">
-        <v>53.02031708</v>
+        <v>54.94780574</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,10 +448,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>26.90323314855902</v>
+        <v>9.713925848680759</v>
       </c>
       <c r="E4">
-        <v>59.66098508200001</v>
+        <v>67.80513934499999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>17.21710522039109</v>
+        <v>9.713925848680759</v>
       </c>
       <c r="E5">
-        <v>156.557137604</v>
+        <v>121.62687959</v>
       </c>
     </row>
   </sheetData>
